--- a/Advanced/DoubleProcessing/template/ResizeWithNesting.xlsx
+++ b/Advanced/DoubleProcessing/template/ResizeWithNesting.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DoubleProcessing\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71148706-8432-4B59-9277-A849C682511C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17115" windowHeight="11760"/>
+    <workbookView xWindow="2175" yWindow="1605" windowWidth="19095" windowHeight="9435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
+    <sheet name="Terran units" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Groups">Report!$A$8:$I$9</definedName>
     <definedName name="Items">Report!$C$9:$I$9</definedName>
     <definedName name="Total">Report!$A$10:$I$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ASSETS</t>
   </si>
@@ -112,12 +127,66 @@
   </si>
   <si>
     <t>[[formula]]IF( [[Total.RecommendedDollars]]&gt;0,[[Total.TargetPercentage]] + [[Total.TargetPercentage]] * [[Total.ToleranceDollars]],0)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Ground Attack</t>
+  </si>
+  <si>
+    <t>Air Attack</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Build Time</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>[[starcraft.unit]]</t>
+  </si>
+  <si>
+    <t>[[starcraft.air attack]]</t>
+  </si>
+  <si>
+    <t>[[starcraft.ground attack]]</t>
+  </si>
+  <si>
+    <t>[[starcraft.build time]:horizontal-resize]</t>
+  </si>
+  <si>
+    <t>[[starcraft.size]:horizontal-resize:extra:whole-column]</t>
+  </si>
+  <si>
+    <t>[[starcraft.version]:horizontal-resize:whole-column]</t>
+  </si>
+  <si>
+    <t>[[starcraft.minerals]:horizontal-resize:whole-column]</t>
+  </si>
+  <si>
+    <t>[[starcraft.gas]:horizontal-resize:whole-column]</t>
+  </si>
+  <si>
+    <t>[[starcraft.range]:horizontal-resize:whole-column]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]mmmm\ dd\,\ yyyy"/>
@@ -662,6 +731,54 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -708,67 +825,207 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="5"/>
+    <cellStyle name="Currency 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="6"/>
+    <cellStyle name="Percent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -788,8 +1045,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Unit" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Size" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Version" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Minerals" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Gas" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ground Attack" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Air Attack" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Range" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Build Time" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,7 +1113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,9 +1146,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,6 +1198,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1078,13 +1390,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showFormulas="1" showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I20" sqref="I20"/>
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
@@ -1107,17 +1419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1138,8 +1450,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="2.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1151,62 +1463,62 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1230,10 +1542,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1260,11 +1572,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1280,11 +1592,11 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="20">
         <f>SUM(D10:D10)</f>
         <v>0</v>
@@ -1302,11 +1614,11 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="25" t="e">
         <f>D11/E11</f>
         <v>#DIV/0!</v>
@@ -1318,23 +1630,23 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="27" t="s">
         <v>12</v>
       </c>
@@ -1348,11 +1660,11 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="27" t="s">
         <v>13</v>
       </c>
@@ -1366,11 +1678,11 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
@@ -1385,6 +1697,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A5:C7"/>
@@ -1394,15 +1715,6 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.5" header="0.5" footer="0.25"/>
@@ -1412,4 +1724,91 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Advanced/DoubleProcessing/template/ResizeWithNesting.xlsx
+++ b/Advanced/DoubleProcessing/template/ResizeWithNesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DoubleProcessing\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71148706-8432-4B59-9277-A849C682511C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4297775E-D815-4609-AA0D-2F87256A212F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1605" windowWidth="19095" windowHeight="9435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ASSETS</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>[[Groups.Name]]</t>
-  </si>
-  <si>
-    <t>[[Groups.Description]]</t>
   </si>
   <si>
     <t>[[Groups.Items.Name]]</t>
@@ -1050,6 +1047,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D38219-8A7D-4759-A3EA-5F354D58CAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38099" y="2124075"/>
+          <a:ext cx="1228725" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="hr-HR" sz="1100"/>
+            <a:t>[[Groups.Description]]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,7 +1461,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I20" sqref="I20"/>
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
@@ -1469,7 +1534,7 @@
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>1</v>
@@ -1481,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,7 +1585,7 @@
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="11">
         <f>SUM(D8:D8)</f>
@@ -1531,10 +1596,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="14" t="e">
         <f>(G8*E$11)-E8</f>
@@ -1542,15 +1607,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="61"/>
       <c r="B9" s="62"/>
       <c r="C9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="16">
         <f>SUM(D9:D9)</f>
@@ -1561,10 +1624,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="19" t="e">
         <f>(G9*E$11)-E9</f>
@@ -1578,7 +1641,7 @@
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="11">
         <f>SUM(D10:D10)</f>
@@ -1587,7 +1650,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -1643,7 +1706,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
@@ -1679,12 +1742,12 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="28">
         <f>SUM(D17:D17)</f>
@@ -1722,7 +1785,8 @@
   <headerFooter>
     <oddFooter>&amp;R&amp;G</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1730,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1748,60 +1812,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
